--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\DSA101\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1A0598-DBD8-482F-BD71-6D1A9945F600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D54CB8-766B-4BB4-A00B-0D37D859BC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Maths" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +58,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -84,12 +92,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -374,7 +385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A565B27E-4594-443F-96BD-B5C5FD424714}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -436,8 +447,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009B296D-CEBF-4251-8911-626880AFE50F}">
   <dimension ref="A1:C1"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="76.28515625" defaultRowHeight="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="76.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{551F20E6-4D25-4809-8E0A-A2F7AFE308C4}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,37 +503,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{551F20E6-4D25-4809-8E0A-A2F7AFE308C4}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="55.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="46.7109375" customWidth="1"/>
-    <col min="3" max="3" width="43.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7BB83BD-6BE3-4C62-A354-AACB6E5D4B42}">
   <dimension ref="A1"/>
